--- a/storage/app/import/sim-si.xlsx
+++ b/storage/app/import/sim-si.xlsx
@@ -196,7 +196,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,6 +240,7 @@
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -253,6 +254,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -336,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,6 +384,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,7 +412,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +629,32 @@
       <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="H2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="8" t="s">
         <v>28</v>
       </c>
@@ -651,7 +662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
@@ -664,40 +675,40 @@
       <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
+      <c r="H3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
@@ -710,38 +721,38 @@
       <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="H4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
@@ -754,38 +765,38 @@
       <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="H5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="n">
+      <c r="H5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
@@ -798,38 +809,38 @@
       <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="H6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="n">
+      <c r="H6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
@@ -842,38 +853,38 @@
       <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="H7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
@@ -886,34 +897,34 @@
       <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17" t="n">
+      <c r="H8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="J8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
